--- a/data_gathering/program_list.xlsx
+++ b/data_gathering/program_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyson\Documents\seng300Group3\data_gathering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Documents\seng300Group3\data_gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EC0C8E-9CC0-4ECA-8F35-81E6C711089F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{B4B9B83D-8048-4FD0-923E-D4ADBE9CB099}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t>Link</t>
   </si>
@@ -37,13 +36,226 @@
   </si>
   <si>
     <t>Example program name</t>
+  </si>
+  <si>
+    <t>Commiter</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>ZXing ("Zebra Crossing")</t>
+  </si>
+  <si>
+    <t>https://github.com/zxing/zxing</t>
+  </si>
+  <si>
+    <t>Tyson</t>
+  </si>
+  <si>
+    <t>https://github.com/square/leakcanary</t>
+  </si>
+  <si>
+    <t>leakcanary</t>
+  </si>
+  <si>
+    <t>https://github.com/Konloch/bytecode-viewer</t>
+  </si>
+  <si>
+    <t>bytecode viewer</t>
+  </si>
+  <si>
+    <t>https://github.com/orhanobut/logger</t>
+  </si>
+  <si>
+    <t>logger</t>
+  </si>
+  <si>
+    <t>https://github.com/deeplearning4j/deeplearning4j</t>
+  </si>
+  <si>
+    <t>deeplearning4j</t>
+  </si>
+  <si>
+    <t>https://github.com/junit-team/junit4</t>
+  </si>
+  <si>
+    <t>junit4</t>
+  </si>
+  <si>
+    <t>https://github.com/mockito/mockito</t>
+  </si>
+  <si>
+    <t>mockito</t>
+  </si>
+  <si>
+    <t>jooq</t>
+  </si>
+  <si>
+    <t>https://github.com/jOOQ/jOOQ</t>
+  </si>
+  <si>
+    <t>MineCraftForge</t>
+  </si>
+  <si>
+    <t>https://github.com/MinecraftForge/MinecraftForge</t>
+  </si>
+  <si>
+    <t>Cryptomator</t>
+  </si>
+  <si>
+    <t>https://github.com/cryptomator/cryptomator</t>
+  </si>
+  <si>
+    <t>JUnit5</t>
+  </si>
+  <si>
+    <t>https://github.com/junit-team/junit5</t>
+  </si>
+  <si>
+    <t>https://github.com/mongodb/mongo-java-driver</t>
+  </si>
+  <si>
+    <t>mongo java driver</t>
+  </si>
+  <si>
+    <t>reflections</t>
+  </si>
+  <si>
+    <t>https://github.com/ronmamo/reflections</t>
+  </si>
+  <si>
+    <t>NullAway</t>
+  </si>
+  <si>
+    <t>https://github.com/uber/NullAway</t>
+  </si>
+  <si>
+    <t>https://github.com/powermock/powermock</t>
+  </si>
+  <si>
+    <t>powermock</t>
+  </si>
+  <si>
+    <t>https://github.com/CrawlScript/WebCollector</t>
+  </si>
+  <si>
+    <t>WebCollector</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>https://github.com/ninjaframework/ninja</t>
+  </si>
+  <si>
+    <t>jmonkeyengine</t>
+  </si>
+  <si>
+    <t>https://github.com/jMonkeyEngine/jmonkeyengine</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>https://github.com/timusus/Shuttle</t>
+  </si>
+  <si>
+    <t>mockserver</t>
+  </si>
+  <si>
+    <t>https://github.com/jamesdbloom/mockserver</t>
+  </si>
+  <si>
+    <t>Minimal Todo</t>
+  </si>
+  <si>
+    <t>https://github.com/avjinder/Minimal-Todo</t>
+  </si>
+  <si>
+    <t>Traccar GPS Tracking</t>
+  </si>
+  <si>
+    <t>https://github.com/traccar/traccar</t>
+  </si>
+  <si>
+    <t>JSqlParser</t>
+  </si>
+  <si>
+    <t>https://github.com/JSQLParser/JSqlParser</t>
+  </si>
+  <si>
+    <t>strman</t>
+  </si>
+  <si>
+    <t>https://github.com/shekhargulati/strman-java</t>
+  </si>
+  <si>
+    <t>Apache Maven</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/maven</t>
+  </si>
+  <si>
+    <t>tablesaw</t>
+  </si>
+  <si>
+    <t>https://github.com/jtablesaw/tablesaw</t>
+  </si>
+  <si>
+    <t>https://github.com/cmusphinx/sphinx4</t>
+  </si>
+  <si>
+    <t>sphinx4</t>
+  </si>
+  <si>
+    <t>jbot</t>
+  </si>
+  <si>
+    <t>https://github.com/ramswaroop/jbot</t>
+  </si>
+  <si>
+    <t>https://github.com/JorenSix/TarsosDSP</t>
+  </si>
+  <si>
+    <t>TarsosDSP</t>
+  </si>
+  <si>
+    <t>lanterna</t>
+  </si>
+  <si>
+    <t>https://github.com/mabe02/lanterna</t>
+  </si>
+  <si>
+    <t>turbo editor</t>
+  </si>
+  <si>
+    <t>https://github.com/vmihalachi/turbo-editor</t>
+  </si>
+  <si>
+    <t>visualvm</t>
+  </si>
+  <si>
+    <t>https://github.com/oracle/visualvm</t>
+  </si>
+  <si>
+    <t>mycollab</t>
+  </si>
+  <si>
+    <t>https://github.com/MyCollab/mycollab</t>
+  </si>
+  <si>
+    <t>spotbugs</t>
+  </si>
+  <si>
+    <t>https://github.com/spotbugs/spotbugs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,14 +267,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,17 +295,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,43 +616,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DD0A52-C986-4942-A170-A5AC0DA1B38F}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" customWidth="1"/>
+    <col min="3" max="3" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4875A586-83B1-4268-AD14-5FA49AB1CBFC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_gathering/program_list.xlsx
+++ b/data_gathering/program_list.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Documents\seng300Group3\data_gathering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidne\OneDrive\Documents\SENG 300\Group Assignment 3\seng300Group3\data_gathering\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="6948"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="144">
   <si>
     <t>Link</t>
   </si>
@@ -249,13 +249,220 @@
   </si>
   <si>
     <t>https://github.com/spotbugs/spotbugs</t>
+  </si>
+  <si>
+    <t>https://github.com/thejavamonk/Vending-Machine-1</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>VendingMachine</t>
+  </si>
+  <si>
+    <t>SimpleExpenseManager</t>
+  </si>
+  <si>
+    <t>https://github.com/GayashanNA/SimpleExpenseManager</t>
+  </si>
+  <si>
+    <t>SimpleDataBase</t>
+  </si>
+  <si>
+    <t>https://github.com/rexshihaoren/SimpleDB</t>
+  </si>
+  <si>
+    <t>openGrok</t>
+  </si>
+  <si>
+    <t>https://github.com/oracle/opengrok.git</t>
+  </si>
+  <si>
+    <t>GraalVM</t>
+  </si>
+  <si>
+    <t>https://github.com/oracle/graal.git</t>
+  </si>
+  <si>
+    <t>https://github.com/oracle/oci-java-sdk.git</t>
+  </si>
+  <si>
+    <t>OCI-Java-SDK</t>
+  </si>
+  <si>
+    <t>Cordova-Plugin</t>
+  </si>
+  <si>
+    <t>https://github.com/oracle/cordova-plugin-oracle-idm-auth.git</t>
+  </si>
+  <si>
+    <t>Samples-Big-Data-Lite</t>
+  </si>
+  <si>
+    <t>https://github.com/oracle/big-data-lite.git</t>
+  </si>
+  <si>
+    <t>Simple Oracle Document Access</t>
+  </si>
+  <si>
+    <t>https://github.com/oracle/soda-for-java.git</t>
+  </si>
+  <si>
+    <t>ForgeGradle</t>
+  </si>
+  <si>
+    <t>https://github.com/MinecraftForge/ForgeGradle.git</t>
+  </si>
+  <si>
+    <t>FernFlower</t>
+  </si>
+  <si>
+    <t>https://github.com/MinecraftForge/FernFlower.git</t>
+  </si>
+  <si>
+    <t>Installer</t>
+  </si>
+  <si>
+    <t>https://github.com/MinecraftForge/Installer.git</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>https://github.com/MinecraftForge/FAIL.git</t>
+  </si>
+  <si>
+    <t>Shipkit</t>
+  </si>
+  <si>
+    <t>https://github.com/mockito/shipkit.git</t>
+  </si>
+  <si>
+    <t>Genie</t>
+  </si>
+  <si>
+    <t>https://github.com/Netflix/genie.git</t>
+  </si>
+  <si>
+    <t>Concurrency-limits</t>
+  </si>
+  <si>
+    <t>https://github.com/Netflix/concurrency-limits.git</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>https://github.com/Netflix/servo.git</t>
+  </si>
+  <si>
+    <t>Incubator-dubbo</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/incubator-dubbo.git</t>
+  </si>
+  <si>
+    <t>RxJava</t>
+  </si>
+  <si>
+    <t>https://github.com/ReactiveX/RxJava.git</t>
+  </si>
+  <si>
+    <t>BookKeeper</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/bookkeeper.git</t>
+  </si>
+  <si>
+    <t>FreeMarker</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/freemarker.git</t>
+  </si>
+  <si>
+    <t>Apache Netbeans</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/incubator-netbeans.git</t>
+  </si>
+  <si>
+    <t>Apache Heron</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/incubator-heron.git</t>
+  </si>
+  <si>
+    <t>Royale Compiler</t>
+  </si>
+  <si>
+    <t>https://github.com/apache/royale-compiler.git</t>
+  </si>
+  <si>
+    <t>Data Transfer Project</t>
+  </si>
+  <si>
+    <t>https://github.com/google/data-transfer-project.git</t>
+  </si>
+  <si>
+    <t>CopyBara</t>
+  </si>
+  <si>
+    <t>https://github.com/google/copybara.git</t>
+  </si>
+  <si>
+    <t>Conscrypt</t>
+  </si>
+  <si>
+    <t>https://github.com/google/conscrypt.git</t>
+  </si>
+  <si>
+    <t>picasso</t>
+  </si>
+  <si>
+    <t>https://github.com/square/picasso.git</t>
+  </si>
+  <si>
+    <t>Android Times Square</t>
+  </si>
+  <si>
+    <t>https://github.com/square/android-times-square</t>
+  </si>
+  <si>
+    <t>Smart Tennis Sensor</t>
+  </si>
+  <si>
+    <t>https://github.com/sony/smarttennissensorsdk.git</t>
+  </si>
+  <si>
+    <t>Fire App Builder</t>
+  </si>
+  <si>
+    <t>https://github.com/amzn/fire-app-builder.git</t>
+  </si>
+  <si>
+    <t>Malmo</t>
+  </si>
+  <si>
+    <t>https://github.com/Microsoft/malmo.git</t>
+  </si>
+  <si>
+    <t>Project Oxford Mimicker Alarm</t>
+  </si>
+  <si>
+    <t>https://github.com/Microsoft/ProjectOxford-Apps-MimickerAlarm.git</t>
+  </si>
+  <si>
+    <t>Visual-Audience-Polling</t>
+  </si>
+  <si>
+    <t>https://github.com/Microsoft/Visual-Audience-Polling.git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +474,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,11 +512,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,20 +835,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" customWidth="1"/>
-    <col min="2" max="2" width="82.5703125" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="82.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,389 +860,763 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C36" t="s">
-        <v>8</v>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
